--- a/media/Worksheet in SRS_v2.xlsx
+++ b/media/Worksheet in SRS_v2.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DADDA59E-5E3F-492A-8DF8-1E038230F75F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Django Projects\pms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9A1CFD-6C8E-4A85-A8B7-D7645B63C11C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="19455" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Query Report" sheetId="1" r:id="rId1"/>
@@ -618,7 +623,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +631,7 @@
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -741,7 +746,7 @@
         <v>-51</v>
       </c>
       <c r="Q2" s="2">
-        <v>43669</v>
+        <v>44223</v>
       </c>
       <c r="R2">
         <v>-13</v>
@@ -806,7 +811,7 @@
         <v>-51</v>
       </c>
       <c r="Q3" s="2">
-        <v>43673</v>
+        <v>44219</v>
       </c>
       <c r="R3">
         <v>-13</v>
@@ -850,7 +855,7 @@
         <v>25</v>
       </c>
       <c r="Q4" s="2">
-        <v>43673</v>
+        <v>44218</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
